--- a/src/predicciones/xgboost/producto_187.xlsx
+++ b/src/predicciones/xgboost/producto_187.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>valor_real</t>
   </si>
   <si>
     <t>valor_prediccion</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,1281 +386,1758 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B159"/>
+  <dimension ref="A1:C159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>44929</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>1.421291828155518</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>1</v>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>44934</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>0.9720851182937622</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>1</v>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>44936</v>
       </c>
       <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>0.8610224723815918</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>1</v>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>44939</v>
       </c>
       <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>1.150966167449951</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>1</v>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>44941</v>
       </c>
       <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>0.9871240258216858</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>1</v>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>44943</v>
       </c>
       <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>1.084572076797485</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>2</v>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>44944</v>
       </c>
       <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
         <v>1.20232105255127</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>1</v>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>44947</v>
       </c>
       <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
         <v>1.22545063495636</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>1</v>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>44948</v>
       </c>
       <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
         <v>1.154277324676514</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>2</v>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>44950</v>
       </c>
       <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
         <v>1.847092628479004</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>2</v>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>44956</v>
       </c>
       <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
         <v>1.162118434906006</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>1</v>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>44957</v>
       </c>
       <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
         <v>1.191927313804626</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>1</v>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>44959</v>
       </c>
       <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
         <v>1.838057398796082</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>1</v>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>44960</v>
       </c>
       <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
         <v>1.317528128623962</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>1</v>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>44964</v>
       </c>
       <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
         <v>1.216906547546387</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>1</v>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>44966</v>
       </c>
       <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
         <v>0.9768361449241638</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>1</v>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>44967</v>
       </c>
       <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
         <v>0.9964028000831604</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>1</v>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>44969</v>
       </c>
       <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
         <v>0.8537355065345764</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>1</v>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>44976</v>
       </c>
       <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
         <v>0.9941591620445251</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>1</v>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>44980</v>
       </c>
       <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
         <v>1.026915669441223</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>1</v>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>44981</v>
       </c>
       <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
         <v>0.9947386384010315</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>1</v>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>44985</v>
       </c>
       <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
         <v>1.258512020111084</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>1</v>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>44986</v>
       </c>
       <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
         <v>1.177898049354553</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>1</v>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>44989</v>
       </c>
       <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
         <v>1.323610663414001</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>2</v>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>44991</v>
       </c>
       <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
         <v>1.638006091117859</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>1</v>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>44992</v>
       </c>
       <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
         <v>1.831726908683777</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>2</v>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>44994</v>
       </c>
       <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
         <v>1.437855124473572</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>2</v>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>44995</v>
       </c>
       <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
         <v>1.346286177635193</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>1</v>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>44997</v>
       </c>
       <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
         <v>1.274723649024963</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>2</v>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>44998</v>
       </c>
       <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
         <v>1.654598474502563</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>2</v>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>44999</v>
       </c>
       <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
         <v>1.817968964576721</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>2</v>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>45001</v>
       </c>
       <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
         <v>1.533844947814941</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>2</v>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>45005</v>
       </c>
       <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
         <v>1.604796886444092</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>1</v>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>45007</v>
       </c>
       <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
         <v>1.918169140815735</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>2</v>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>45008</v>
       </c>
       <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
         <v>0.8963043689727783</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>1</v>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>45009</v>
       </c>
       <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
         <v>1.328536152839661</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>2</v>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>45010</v>
       </c>
       <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
         <v>1.229328036308289</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>1</v>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>45019</v>
       </c>
       <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
         <v>1.473141670227051</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>1</v>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>45020</v>
       </c>
       <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
         <v>1.419942021369934</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>1</v>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>45029</v>
       </c>
       <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
         <v>1.366066575050354</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>2</v>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>45030</v>
       </c>
       <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
         <v>1.477323412895203</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <v>2</v>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>45042</v>
       </c>
       <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
         <v>1.552805304527283</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>2</v>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>45043</v>
       </c>
       <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
         <v>1.188676357269287</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
-        <v>1</v>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>45044</v>
       </c>
       <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
         <v>0.9894394278526306</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
-        <v>2</v>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>45046</v>
       </c>
       <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
         <v>1.739455819129944</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
-        <v>1</v>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>45051</v>
       </c>
       <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
         <v>1.54922890663147</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
-        <v>2</v>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>45055</v>
       </c>
       <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
         <v>1.657585263252258</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49">
-        <v>1</v>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>45057</v>
       </c>
       <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
         <v>1.816252708435059</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50">
-        <v>1</v>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>45059</v>
       </c>
       <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
         <v>1.412492632865906</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51">
-        <v>2</v>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>45060</v>
       </c>
       <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
         <v>1.623615980148315</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52">
-        <v>1</v>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>45061</v>
       </c>
       <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
         <v>0.7905451059341431</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53">
-        <v>1</v>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>45066</v>
       </c>
       <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
         <v>0.999697208404541</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54">
-        <v>1</v>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>45072</v>
       </c>
       <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
         <v>1.686784505844116</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55">
-        <v>1</v>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
+        <v>45074</v>
       </c>
       <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
         <v>1.02325439453125</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56">
-        <v>1</v>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
+        <v>45077</v>
       </c>
       <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
         <v>0.9492435455322266</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57">
-        <v>1</v>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <v>45084</v>
       </c>
       <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
         <v>0.9112190008163452</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58">
-        <v>1</v>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>45085</v>
       </c>
       <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
         <v>1.11056923866272</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59">
-        <v>1</v>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>45086</v>
       </c>
       <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
         <v>0.9487705826759338</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60">
-        <v>1</v>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <v>45087</v>
       </c>
       <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
         <v>0.9354426860809326</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61">
-        <v>1</v>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
+        <v>45089</v>
       </c>
       <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
         <v>0.9926896691322327</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62">
-        <v>1</v>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <v>45092</v>
       </c>
       <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
         <v>1.085851669311523</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63">
-        <v>1</v>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
+        <v>45097</v>
       </c>
       <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
         <v>1.584923386573792</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64">
-        <v>1</v>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2">
+        <v>45102</v>
       </c>
       <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
         <v>1.917719960212708</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65">
-        <v>2</v>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2">
+        <v>45106</v>
       </c>
       <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
         <v>1.763839721679688</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66">
-        <v>2</v>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2">
+        <v>45107</v>
       </c>
       <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
         <v>1.182942152023315</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67">
-        <v>1</v>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2">
+        <v>45109</v>
       </c>
       <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
         <v>1.436681032180786</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68">
-        <v>2</v>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2">
+        <v>45114</v>
       </c>
       <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68">
         <v>1.318077564239502</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69">
-        <v>1</v>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2">
+        <v>45116</v>
       </c>
       <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
         <v>0.9353201985359192</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70">
-        <v>1</v>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2">
+        <v>45119</v>
       </c>
       <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
         <v>1.209774732589722</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71">
-        <v>1</v>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2">
+        <v>45121</v>
       </c>
       <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
         <v>1.491147875785828</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72">
-        <v>1</v>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2">
+        <v>45122</v>
       </c>
       <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
         <v>1.066683650016785</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73">
-        <v>2</v>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2">
+        <v>45125</v>
       </c>
       <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73">
         <v>1.01160192489624</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74">
-        <v>1</v>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2">
+        <v>45126</v>
       </c>
       <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
         <v>1.28881311416626</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75">
-        <v>1</v>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2">
+        <v>45130</v>
       </c>
       <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
         <v>1.207457661628723</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76">
-        <v>1</v>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2">
+        <v>45133</v>
       </c>
       <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
         <v>1.304503798484802</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77">
-        <v>2</v>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2">
+        <v>45138</v>
       </c>
       <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77">
         <v>1.191447973251343</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78">
-        <v>1</v>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2">
+        <v>45141</v>
       </c>
       <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
         <v>1.823003172874451</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79">
-        <v>2</v>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2">
+        <v>45142</v>
       </c>
       <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79">
         <v>1.727255702018738</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80">
-        <v>2</v>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2">
+        <v>45145</v>
       </c>
       <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80">
         <v>1.466456294059753</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81">
-        <v>2</v>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2">
+        <v>45147</v>
       </c>
       <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
         <v>1.966925859451294</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82">
-        <v>2</v>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2">
+        <v>45148</v>
       </c>
       <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82">
         <v>1.683303833007812</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83">
-        <v>1</v>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2">
+        <v>45149</v>
       </c>
       <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
         <v>1.16186511516571</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="A84">
-        <v>1</v>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2">
+        <v>45155</v>
       </c>
       <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
         <v>1.307030439376831</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85">
-        <v>1</v>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2">
+        <v>45156</v>
       </c>
       <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
         <v>1.103919625282288</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86">
-        <v>1</v>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2">
+        <v>45158</v>
       </c>
       <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
         <v>1.033132433891296</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87">
-        <v>1</v>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2">
+        <v>45165</v>
       </c>
       <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
         <v>1.612014532089233</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
-      <c r="A88">
-        <v>1</v>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2">
+        <v>45167</v>
       </c>
       <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
         <v>1.285181641578674</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89">
-        <v>2</v>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2">
+        <v>45173</v>
       </c>
       <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89">
         <v>1.039457559585571</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="A90">
-        <v>2</v>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2">
+        <v>45180</v>
       </c>
       <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90">
         <v>1.296458959579468</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="A91">
-        <v>1</v>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
+        <v>45181</v>
       </c>
       <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
         <v>1.515738010406494</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92">
-        <v>2</v>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
+        <v>45182</v>
       </c>
       <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92">
         <v>1.846279859542847</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="A93">
-        <v>1</v>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
+        <v>45185</v>
       </c>
       <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
         <v>1.321309685707092</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94">
-        <v>2</v>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2">
+        <v>45189</v>
       </c>
       <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94">
         <v>1.046676754951477</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="A95">
-        <v>1</v>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2">
+        <v>45191</v>
       </c>
       <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
         <v>0.7454855442047119</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
-      <c r="A96">
-        <v>1</v>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2">
+        <v>45194</v>
       </c>
       <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
         <v>1.17715847492218</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97">
-        <v>1</v>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2">
+        <v>45201</v>
       </c>
       <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
         <v>1.194964289665222</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98">
-        <v>1</v>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2">
+        <v>45203</v>
       </c>
       <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
         <v>0.9355474710464478</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="A99">
-        <v>1</v>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2">
+        <v>45211</v>
       </c>
       <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
         <v>1.19948422908783</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
-      <c r="A100">
-        <v>1</v>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2">
+        <v>45212</v>
       </c>
       <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
         <v>1.192133545875549</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101">
-        <v>1</v>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2">
+        <v>45213</v>
       </c>
       <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
         <v>1.224900126457214</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102">
-        <v>2</v>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2">
+        <v>45215</v>
       </c>
       <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102">
         <v>0.9956692457199097</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103">
-        <v>1</v>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2">
+        <v>45216</v>
       </c>
       <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
         <v>1.008726000785828</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
-      <c r="A104">
-        <v>1</v>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2">
+        <v>45219</v>
       </c>
       <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
         <v>1.40848433971405</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
-      <c r="A105">
-        <v>2</v>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2">
+        <v>45220</v>
       </c>
       <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105">
         <v>1.712043404579163</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="A106">
-        <v>1</v>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2">
+        <v>45222</v>
       </c>
       <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
         <v>1.376608848571777</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
-      <c r="A107">
-        <v>1</v>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2">
+        <v>45228</v>
       </c>
       <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
         <v>1.572856307029724</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="A108">
-        <v>2</v>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2">
+        <v>45229</v>
       </c>
       <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="C108">
         <v>2.036886215209961</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="A109">
-        <v>1</v>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2">
+        <v>45232</v>
       </c>
       <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
         <v>1.714946150779724</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
-      <c r="A110">
-        <v>2</v>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2">
+        <v>45233</v>
       </c>
       <c r="B110">
+        <v>2</v>
+      </c>
+      <c r="C110">
         <v>2.082699298858643</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
-      <c r="A111">
-        <v>2</v>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2">
+        <v>45234</v>
       </c>
       <c r="B111">
+        <v>2</v>
+      </c>
+      <c r="C111">
         <v>1.806313514709473</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
-      <c r="A112">
-        <v>2</v>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2">
+        <v>45235</v>
       </c>
       <c r="B112">
+        <v>2</v>
+      </c>
+      <c r="C112">
         <v>1.921984553337097</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
-      <c r="A113">
-        <v>1</v>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2">
+        <v>45238</v>
       </c>
       <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
         <v>1.959444999694824</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
-      <c r="A114">
-        <v>1</v>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2">
+        <v>45239</v>
       </c>
       <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
         <v>1.872371196746826</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
-      <c r="A115">
-        <v>2</v>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2">
+        <v>45240</v>
       </c>
       <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115">
         <v>2.024468421936035</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
-      <c r="A116">
-        <v>2</v>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2">
+        <v>45244</v>
       </c>
       <c r="B116">
+        <v>2</v>
+      </c>
+      <c r="C116">
         <v>1.590959906578064</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
-      <c r="A117">
-        <v>2</v>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2">
+        <v>45246</v>
       </c>
       <c r="B117">
+        <v>2</v>
+      </c>
+      <c r="C117">
         <v>1.892795920372009</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
-      <c r="A118">
-        <v>1</v>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2">
+        <v>45249</v>
       </c>
       <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
         <v>1.36937940120697</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
-      <c r="A119">
-        <v>2</v>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2">
+        <v>45250</v>
       </c>
       <c r="B119">
+        <v>2</v>
+      </c>
+      <c r="C119">
         <v>1.002590656280518</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
-      <c r="A120">
-        <v>1</v>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2">
+        <v>45252</v>
       </c>
       <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
         <v>1.538325428962708</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
-      <c r="A121">
-        <v>1</v>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2">
+        <v>45259</v>
       </c>
       <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
         <v>1.42724609375</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
-      <c r="A122">
-        <v>1</v>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2">
+        <v>45260</v>
       </c>
       <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
         <v>1.710851430892944</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
-      <c r="A123">
-        <v>2</v>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2">
+        <v>45266</v>
       </c>
       <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123">
         <v>1.509479284286499</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
-      <c r="A124">
-        <v>1</v>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2">
+        <v>45267</v>
       </c>
       <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
         <v>1.281265377998352</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
-      <c r="A125">
-        <v>2</v>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2">
+        <v>45269</v>
       </c>
       <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="C125">
         <v>1.833457350730896</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
-      <c r="A126">
-        <v>2</v>
+    <row r="126" spans="1:3">
+      <c r="A126" s="2">
+        <v>45270</v>
       </c>
       <c r="B126">
+        <v>2</v>
+      </c>
+      <c r="C126">
         <v>1.784998655319214</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
-      <c r="A127">
-        <v>2</v>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2">
+        <v>45277</v>
       </c>
       <c r="B127">
+        <v>2</v>
+      </c>
+      <c r="C127">
         <v>1.771711587905884</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
-      <c r="A128">
-        <v>2</v>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2">
+        <v>45286</v>
       </c>
       <c r="B128">
+        <v>2</v>
+      </c>
+      <c r="C128">
         <v>1.693674325942993</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
-      <c r="A129">
-        <v>1</v>
+    <row r="129" spans="1:3">
+      <c r="A129" s="2">
+        <v>45289</v>
       </c>
       <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129">
         <v>1.346858501434326</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
-      <c r="A130">
-        <v>1</v>
+    <row r="130" spans="1:3">
+      <c r="A130" s="2">
+        <v>45291</v>
       </c>
       <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
         <v>1.810771107673645</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
-      <c r="A131">
-        <v>1</v>
+    <row r="131" spans="1:3">
+      <c r="A131" s="2">
+        <v>45293</v>
       </c>
       <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131">
         <v>1.271972179412842</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
-      <c r="A132">
-        <v>1</v>
+    <row r="132" spans="1:3">
+      <c r="A132" s="2">
+        <v>45294</v>
       </c>
       <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
         <v>1.330833792686462</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
-      <c r="A133">
-        <v>2</v>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2">
+        <v>45295</v>
       </c>
       <c r="B133">
+        <v>2</v>
+      </c>
+      <c r="C133">
         <v>1.433136701583862</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
-      <c r="A134">
-        <v>2</v>
+    <row r="134" spans="1:3">
+      <c r="A134" s="2">
+        <v>45296</v>
       </c>
       <c r="B134">
+        <v>2</v>
+      </c>
+      <c r="C134">
         <v>1.372298002243042</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
-      <c r="A135">
-        <v>1</v>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2">
+        <v>45297</v>
       </c>
       <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135">
         <v>0.8293437957763672</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
-      <c r="A136">
-        <v>2</v>
+    <row r="136" spans="1:3">
+      <c r="A136" s="2">
+        <v>45301</v>
       </c>
       <c r="B136">
+        <v>2</v>
+      </c>
+      <c r="C136">
         <v>1.59035050868988</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
-      <c r="A137">
-        <v>1</v>
+    <row r="137" spans="1:3">
+      <c r="A137" s="2">
+        <v>45302</v>
       </c>
       <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137">
         <v>1.104667067527771</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
-      <c r="A138">
-        <v>1</v>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2">
+        <v>45304</v>
       </c>
       <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138">
         <v>1.35271430015564</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
-      <c r="A139">
-        <v>1</v>
+    <row r="139" spans="1:3">
+      <c r="A139" s="2">
+        <v>45305</v>
       </c>
       <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139">
         <v>1.550350189208984</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
-      <c r="A140">
-        <v>2</v>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2">
+        <v>45308</v>
       </c>
       <c r="B140">
+        <v>2</v>
+      </c>
+      <c r="C140">
         <v>1.451780676841736</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
-      <c r="A141">
-        <v>1</v>
+    <row r="141" spans="1:3">
+      <c r="A141" s="2">
+        <v>45309</v>
       </c>
       <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141">
         <v>1.244959950447083</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
-      <c r="A142">
-        <v>2</v>
+    <row r="142" spans="1:3">
+      <c r="A142" s="2">
+        <v>45310</v>
       </c>
       <c r="B142">
+        <v>2</v>
+      </c>
+      <c r="C142">
         <v>1.535046935081482</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
-      <c r="A143">
-        <v>1</v>
+    <row r="143" spans="1:3">
+      <c r="A143" s="2">
+        <v>45318</v>
       </c>
       <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143">
         <v>1.417910695075989</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
-      <c r="A144">
-        <v>2</v>
+    <row r="144" spans="1:3">
+      <c r="A144" s="2">
+        <v>45323</v>
       </c>
       <c r="B144">
+        <v>2</v>
+      </c>
+      <c r="C144">
         <v>1.429355263710022</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
-      <c r="A145">
-        <v>2</v>
+    <row r="145" spans="1:3">
+      <c r="A145" s="2">
+        <v>45325</v>
       </c>
       <c r="B145">
+        <v>2</v>
+      </c>
+      <c r="C145">
         <v>1.721787452697754</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
-      <c r="A146">
-        <v>1</v>
+    <row r="146" spans="1:3">
+      <c r="A146" s="2">
+        <v>45327</v>
       </c>
       <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146">
         <v>1.588591694831848</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
-      <c r="A147">
-        <v>1</v>
+    <row r="147" spans="1:3">
+      <c r="A147" s="2">
+        <v>45330</v>
       </c>
       <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
         <v>1.446834683418274</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
-      <c r="A148">
-        <v>1</v>
+    <row r="148" spans="1:3">
+      <c r="A148" s="2">
+        <v>45331</v>
       </c>
       <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148">
         <v>1.080953598022461</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
-      <c r="A149">
-        <v>1</v>
+    <row r="149" spans="1:3">
+      <c r="A149" s="2">
+        <v>45332</v>
       </c>
       <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149">
         <v>1.048693537712097</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
-      <c r="A150">
-        <v>1</v>
+    <row r="150" spans="1:3">
+      <c r="A150" s="2">
+        <v>45333</v>
       </c>
       <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150">
         <v>1.093614101409912</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
-      <c r="A151">
-        <v>1</v>
+    <row r="151" spans="1:3">
+      <c r="A151" s="2">
+        <v>45336</v>
       </c>
       <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151">
         <v>1.039798021316528</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
-      <c r="A152">
-        <v>1</v>
+    <row r="152" spans="1:3">
+      <c r="A152" s="2">
+        <v>45338</v>
       </c>
       <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152">
         <v>0.8762331604957581</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
-      <c r="A153">
-        <v>1</v>
+    <row r="153" spans="1:3">
+      <c r="A153" s="2">
+        <v>45340</v>
       </c>
       <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153">
         <v>0.8526609539985657</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
-      <c r="A154">
-        <v>1</v>
+    <row r="154" spans="1:3">
+      <c r="A154" s="2">
+        <v>45341</v>
       </c>
       <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
         <v>1.035637617111206</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
-      <c r="A155">
-        <v>1</v>
+    <row r="155" spans="1:3">
+      <c r="A155" s="2">
+        <v>45347</v>
       </c>
       <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155">
         <v>1.171884179115295</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
-      <c r="A156">
-        <v>1</v>
+    <row r="156" spans="1:3">
+      <c r="A156" s="2">
+        <v>45350</v>
       </c>
       <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
         <v>1.282627463340759</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
-      <c r="A157">
-        <v>2</v>
+    <row r="157" spans="1:3">
+      <c r="A157" s="2">
+        <v>45351</v>
       </c>
       <c r="B157">
+        <v>2</v>
+      </c>
+      <c r="C157">
         <v>0.9117189049720764</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
-      <c r="A158">
-        <v>1</v>
+    <row r="158" spans="1:3">
+      <c r="A158" s="2">
+        <v>45353</v>
       </c>
       <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158">
         <v>1.149539709091187</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
-      <c r="A159">
-        <v>1</v>
+    <row r="159" spans="1:3">
+      <c r="A159" s="2">
+        <v>45355</v>
       </c>
       <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159">
         <v>1.068478584289551</v>
       </c>
     </row>
